--- a/0412/강의내용.xlsx
+++ b/0412/강의내용.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyuk/Dropbox/뉴딜/0412/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA837ED-591E-EF48-8895-D370F33DBF84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="10300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$37</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -28,212 +35,220 @@
   </si>
   <si>
     <t>eclipse 사용법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WAS/Web Server 기능 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JSP, jQuery 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Vue JS 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ANSI SQL 문  소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ERD 그리는법       PK&lt;FK&lt;UK  설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DB 종류(오라클,Mysql, ms sql 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Java 자료형 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전자정부 프레임웍 구조 설명 (머노테이션 포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Protocol   http tcp/ip 등등 (구조 포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>웹 탄생 배경 및 기술 흐름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Java 형태  Public Private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ip,dns, gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IT 직군, 회사(서비스, 솔루션,SI 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수행 사례</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개발 방법론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>산출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Framework 탄생 및 필요성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Maven, DataBase 연계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설정방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Open 소스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MyBatis </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>$,# 차이점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SQL 문 샘플 소개   DDL, DML, DCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기반기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DBMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JAVA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>API (다음 우편번호, 지도 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PM,PL 등  구조설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구성원  자세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개발 요건 협의 방법  ( 개발 일정 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Auto Complie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>형상관리 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Project 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Agile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HTML5  세션   쿠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IT동향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PI, PMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Cross Browsing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>반응형 웹 CSS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -254,13 +269,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -277,12 +285,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -370,9 +378,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -389,13 +415,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -413,17 +436,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - 강조색1" xfId="1" builtinId="32"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,6 +458,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -479,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,9 +542,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,6 +594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -722,18 +786,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="113" zoomScaleNormal="62" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="38" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1">
@@ -744,87 +808,87 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="19" thickTop="1" thickBot="1">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:4" ht="20" thickTop="1" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:4" ht="18" thickTop="1">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="7"/>
+      <c r="B6" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:4" ht="18">
+      <c r="A7" s="7"/>
+      <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:4" ht="18">
+      <c r="A10" s="7"/>
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="7"/>
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
@@ -832,36 +896,36 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G18" t="s">
@@ -869,31 +933,31 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -901,19 +965,19 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -921,19 +985,19 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -941,13 +1005,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -955,13 +1019,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -969,13 +1033,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -983,59 +1047,33 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>